--- a/docs/odh/shr-core-ReasonReference-extension.xlsx
+++ b/docs/odh/shr-core-ReasonReference-extension.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
   <si>
     <t>Path</t>
   </si>
@@ -193,20 +193,23 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource]]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -364,7 +367,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.1875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -978,7 +981,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
